--- a/KetQuaTest_DashboardServlet.xlsx
+++ b/KetQuaTest_DashboardServlet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -35,10 +35,34 @@
     <t>Trạng Thái</t>
   </si>
   <si>
+    <t>DASH_SERV_02</t>
+  </si>
+  <si>
+    <t>Lỗi hệ thống (Exception)</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>DAO ném lỗi RuntimeException</t>
+  </si>
+  <si>
+    <t>Log Error &amp; Forward JSP (Safe Mode)</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
     <t>DASH_SERV_01</t>
   </si>
   <si>
     <t>Load trang Dashboard thành công</t>
+  </si>
+  <si>
+    <t>Data: Rev=10tr, Orders=50</t>
   </si>
   <si>
     <t>1. Gọi DAO lấy số liệu
@@ -46,58 +70,7 @@
 3. Forward JSP</t>
   </si>
   <si>
-    <t>Data: Rev=10tr, Orders=50</t>
-  </si>
-  <si>
     <t>Forward Dashboard.jsp &amp; Data OK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Argument(s) are different! Wanted:
-request.setAttribute(
-    "totalRevenue",
-    1.0E7d
-);
--&gt; at unit.DashboardServletTest.testDoGet_LoadDashboardSuccess(DashboardServletTest.java:111)
-Actual invocations have different arguments:
-request.setAttribute(
-    "totalRevenue",
-    3500000.0d
-);
--&gt; at control.admin.DashboardServlet.doGet(DashboardServlet.java:32)
-request.setAttribute(
-    "totalOrders",
-    3
-);
--&gt; at control.admin.DashboardServlet.doGet(DashboardServlet.java:33)
-request.setAttribute(
-    "totalUsers",
-    3
-);
--&gt; at control.admin.DashboardServlet.doGet(DashboardServlet.java:34)
-request.setAttribute(
-    "topSellingProducts",
-    [{name=Áo Khoác Dù Nam , total_sold=3}]
-);
--&gt; at control.admin.DashboardServlet.doGet(DashboardServlet.java:35)
-request.setAttribute(
-    "revenueChartData",
-    [{date=29/11, revenue=500000.0}, {date=30/11, revenue=1000000.0}]
-);
--&gt; at control.admin.DashboardServlet.doGet(DashboardServlet.java:37)
-request.setAttribute(
-    "statusChartData",
-    [{count=1, status=Chờ xử lý}, {count=3, status=Đã giao}]
-);
--&gt; at control.admin.DashboardServlet.doGet(DashboardServlet.java:38)
-request.getRequestDispatcher(
-    "/admin/dashboard/Dashboard.jsp"
-);
--&gt; at control.admin.DashboardServlet.doGet(DashboardServlet.java:40)
-</t>
-  </si>
-  <si>
-    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -175,7 +148,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -183,10 +156,10 @@
   <cols>
     <col min="1" max="1" width="14.99609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="31.328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.16796875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="24.90625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="31.62890625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="90.18359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.90625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="29.15625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="33.97265625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="16.2109375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="10.62890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -232,7 +205,30 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="G2" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s" s="2">
         <v>13</v>
       </c>
     </row>
